--- a/alunos_tempo_uniao2.xlsx
+++ b/alunos_tempo_uniao2.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44373</v>
+        <v>44347</v>
       </c>
       <c r="C2">
-        <v>1.186862320727289</v>
+        <v>1.181499232696965</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44374</v>
+        <v>44348</v>
       </c>
       <c r="C3">
-        <v>0.8392914620299958</v>
+        <v>1.146181993214942</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44375</v>
+        <v>44349</v>
       </c>
       <c r="C4">
-        <v>1.229636651196199</v>
+        <v>1.150018702939569</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44376</v>
+        <v>44350</v>
       </c>
       <c r="C5">
-        <v>1.325576011157601</v>
+        <v>0.8737762439103937</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44377</v>
+        <v>44351</v>
       </c>
       <c r="C6">
-        <v>1.112844914017387</v>
+        <v>1.037960406863995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44378</v>
+        <v>44352</v>
       </c>
       <c r="C7">
-        <v>1.314354825917995</v>
+        <v>0.985850200243963</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44379</v>
+        <v>44353</v>
       </c>
       <c r="C8">
-        <v>1.23124384182282</v>
+        <v>1.458273020860609</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44380</v>
+        <v>44354</v>
       </c>
       <c r="C9">
-        <v>1.297525309618911</v>
+        <v>1.137700295024511</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44381</v>
+        <v>44355</v>
       </c>
       <c r="C10">
-        <v>0.8349829901786771</v>
+        <v>1.135817194695616</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44382</v>
+        <v>44356</v>
       </c>
       <c r="C11">
-        <v>0.9311753950678041</v>
+        <v>1.153391533819905</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44383</v>
+        <v>44357</v>
       </c>
       <c r="C12">
-        <v>0.9556611341632089</v>
+        <v>1.305306929603892</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44384</v>
+        <v>44358</v>
       </c>
       <c r="C13">
-        <v>0.9011626968688309</v>
+        <v>1.333599803680151</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44385</v>
+        <v>44359</v>
       </c>
       <c r="C14">
-        <v>1.051541912868614</v>
+        <v>0.9793663816800745</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44386</v>
+        <v>44360</v>
       </c>
       <c r="C15">
-        <v>1.108222421465099</v>
+        <v>1.365812944567083</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44387</v>
+        <v>44361</v>
       </c>
       <c r="C16">
-        <v>1.069600113660799</v>
+        <v>1.230596766086818</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44388</v>
+        <v>44362</v>
       </c>
       <c r="C17">
-        <v>1.267187535931931</v>
+        <v>1.290366449743396</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44389</v>
+        <v>44363</v>
       </c>
       <c r="C18">
-        <v>0.9301249977631038</v>
+        <v>1.327286889486378</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44390</v>
+        <v>44364</v>
       </c>
       <c r="C19">
-        <v>0.9890511357278728</v>
+        <v>1.400332457112883</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44391</v>
+        <v>44365</v>
       </c>
       <c r="C20">
-        <v>0.9354218916248671</v>
+        <v>1.402286566111398</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44392</v>
+        <v>44366</v>
       </c>
       <c r="C21">
-        <v>0.900160810198667</v>
+        <v>1.128240833611947</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44393</v>
+        <v>44367</v>
       </c>
       <c r="C22">
-        <v>1.139971011793917</v>
+        <v>0.787236574999207</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44394</v>
+        <v>44368</v>
       </c>
       <c r="C23">
-        <v>1.181297256021231</v>
+        <v>1.316907245010859</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44395</v>
+        <v>44369</v>
       </c>
       <c r="C24">
-        <v>1.116656708310701</v>
+        <v>1.316482349342449</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44396</v>
+        <v>44370</v>
       </c>
       <c r="C25">
-        <v>0.6762565068040692</v>
+        <v>1.20861428969807</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="C26">
-        <v>0.7164363447805083</v>
+        <v>1.186603379411141</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44398</v>
+        <v>44372</v>
       </c>
       <c r="C27">
-        <v>0.8052506424092918</v>
+        <v>1.272861131983207</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44399</v>
+        <v>44373</v>
       </c>
       <c r="C28">
-        <v>0.7224502100513459</v>
+        <v>1.202806977987106</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44400</v>
+        <v>44374</v>
       </c>
       <c r="C29">
-        <v>0.9456065663423097</v>
+        <v>0.8447195786317578</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,362 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C30">
+        <v>1.241982572455842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44376</v>
+      </c>
+      <c r="C31">
+        <v>1.337140146150796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C32">
+        <v>1.119982378331922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C33">
+        <v>1.324395868968712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44379</v>
+      </c>
+      <c r="C34">
+        <v>1.240457915831663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44380</v>
+      </c>
+      <c r="C35">
+        <v>1.308216103096456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C36">
+        <v>0.8398474682411881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44382</v>
+      </c>
+      <c r="C37">
+        <v>0.9383992795788307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44383</v>
+      </c>
+      <c r="C38">
+        <v>0.9623773872829288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44384</v>
+      </c>
+      <c r="C39">
+        <v>0.9064416255117055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44385</v>
+      </c>
+      <c r="C40">
+        <v>1.059515742713512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C41">
+        <v>1.112029127187046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44387</v>
+      </c>
+      <c r="C42">
+        <v>1.073792550223214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44388</v>
+      </c>
+      <c r="C43">
+        <v>1.278090059703807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C44">
+        <v>0.933675046958532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44390</v>
+      </c>
+      <c r="C45">
+        <v>0.9951211744308759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44391</v>
+      </c>
+      <c r="C46">
+        <v>0.9412997161814904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44392</v>
+      </c>
+      <c r="C47">
+        <v>0.9055637335077964</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44393</v>
+      </c>
+      <c r="C48">
+        <v>1.148156867911272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44394</v>
+      </c>
+      <c r="C49">
+        <v>1.187548089091369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44395</v>
+      </c>
+      <c r="C50">
+        <v>1.123674076106842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C51">
+        <v>0.6798248109855467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C52">
+        <v>0.7185852435530086</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44398</v>
+      </c>
+      <c r="C53">
+        <v>0.8087669920013262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44399</v>
+      </c>
+      <c r="C54">
+        <v>0.7263670793501542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C55">
+        <v>0.950490201674277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
         <v>44401</v>
       </c>
-      <c r="C30">
-        <v>0.9835379578473501</v>
+      <c r="C56">
+        <v>0.9901610036375662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44402</v>
+      </c>
+      <c r="C57">
+        <v>0.740482944011865</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44403</v>
+      </c>
+      <c r="C58">
+        <v>0.7003358898006764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C59">
+        <v>0.7159132830279076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C60">
+        <v>0.7643231395625296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44406</v>
+      </c>
+      <c r="C61">
+        <v>0.8641530034235917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44407</v>
+      </c>
+      <c r="C62">
+        <v>1.045156264862147</v>
       </c>
     </row>
   </sheetData>
